--- a/biology/Botanique/Rabenh/Rabenh..xlsx
+++ b/biology/Botanique/Rabenh/Rabenh..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gottlob Ludwig Rabenhorst est un botaniste prussien, né le 22 mars 1806 à Treuenbrietzen et mort le 24 avril 1881 à Meißen.
 Il commence en 1822 à apprendre la pharmacie à Belzig étudie la botanique de 1822 à 1830 à l’université de Berlin où il devient pharmacien de classe 1. De 1831 à 1840, il exerce la pharmacie à Luckau et fait des recherches en botanique, principalement sur les cryptogames. Il publie le résultat de ses observations dans sa Flora lusatica. À partir de 1840, il se consacre exclusivement à ses recherches en botanique et en mycologie et s’installe à Dresde, puis, en 1875, à Meißen. Il obtient un doctorat en 1841 à l’université d'Iéna.
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>"Die Algen Sachsens"
 "Die Algen Europas"
